--- a/src/test/resources/test_incorrect_section_name_header_file.xlsx
+++ b/src/test/resources/test_incorrect_section_name_header_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttzhang/Documents/projects/Natlex_Task/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9734431D-91C5-5A48-8BC5-BC5B25D61AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B64239F-A054-8243-90A4-51622D7841A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{C461ED32-CABF-9343-80F3-C9D876E969B0}"/>
   </bookViews>
@@ -464,16 +464,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -481,16 +481,16 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -515,16 +515,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -532,10 +532,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
